--- a/cxc mayra.xlsx
+++ b/cxc mayra.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Nombre</t>
   </si>
@@ -32,9 +32,6 @@
     <t>cuota</t>
   </si>
   <si>
-    <t>Elionora nayellys :yahaira</t>
-  </si>
-  <si>
     <t>Juan Amaro</t>
   </si>
   <si>
@@ -47,9 +44,6 @@
     <t>Mayra Magalis</t>
   </si>
   <si>
-    <t>Ramon Manuel</t>
-  </si>
-  <si>
     <t>Jose miguel Pimentel</t>
   </si>
   <si>
@@ -57,9 +51,6 @@
   </si>
   <si>
     <t xml:space="preserve">Belie Lopez : Bely </t>
-  </si>
-  <si>
-    <t>Enmanuel Arturo</t>
   </si>
   <si>
     <t>total</t>
@@ -150,8 +141,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table68" displayName="Table68" ref="A1:B12" totalsRowShown="0">
-  <autoFilter ref="A1:B12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table68" displayName="Table68" ref="A1:B9" totalsRowShown="0">
+  <autoFilter ref="A1:B9"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Nombre"/>
     <tableColumn id="2" name="cuota" dataCellStyle="Currency"/>
@@ -423,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +439,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>1605</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -472,7 +463,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>1500</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -480,7 +471,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>6600</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -488,7 +479,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>3200</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -496,40 +487,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>1750</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2">
-        <f>SUBTOTAL(109,B2:B11)</f>
-        <v>21825</v>
+      <c r="B9" s="2">
+        <f>SUBTOTAL(109,B2:B8)</f>
+        <v>15620</v>
       </c>
     </row>
   </sheetData>
